--- a/api-test/src/test/resources/excel/RowsAndColoums.xlsx
+++ b/api-test/src/test/resources/excel/RowsAndColoums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_workbench\easy-excel-test\api-test\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF7CF8FB-1AAC-49E3-9A68-B8E710E85631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC606E94-40A2-4EA5-A019-66CC328CDABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{22AFC68C-31D0-4690-AF0B-F0ED17CC6EAE}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E1" sqref="E1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -418,6 +418,7 @@
     <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
